--- a/MAIN ATTENDANCE/ATTENDANCE .xlsx
+++ b/MAIN ATTENDANCE/ATTENDANCE .xlsx
@@ -9,7 +9,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -425,20 +425,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="16.109375"/>
-    <col customWidth="1" max="2" min="2" width="22"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="9.5546875"/>
-    <col bestFit="1" customWidth="1" max="13" min="4" width="10.33203125"/>
-    <col customWidth="1" max="14" min="14" width="11.5546875"/>
-    <col bestFit="1" customWidth="1" max="15" min="15" width="10.33203125"/>
+    <col customWidth="1" max="1" min="1" width="19.33203125"/>
+    <col customWidth="1" max="3" min="2" width="22"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="9.5546875"/>
+    <col bestFit="1" customWidth="1" max="14" min="5" width="10.33203125"/>
+    <col customWidth="1" max="15" min="15" width="11.5546875"/>
+    <col bestFit="1" customWidth="1" max="35" min="16" width="10.33203125"/>
+    <col customWidth="1" max="37" min="37" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -454,40 +455,113 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>Phone Number</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>ROOM NO</t>
         </is>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>44986</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>44987</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>44988</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>44989</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>44990</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>44991</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>44992</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>44993</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>44994</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>44995</v>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" s="1" t="n">
+        <v>44996</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>44998</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>44999</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>45000</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>45001</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>45002</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>45003</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>45004</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>45005</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>45006</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>45007</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>45008</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>45009</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>45010</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>45011</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>45012</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>45013</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>45014</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>45015</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>45016</v>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
         <is>
           <t>Percentage</t>
         </is>
@@ -502,15 +576,55 @@
       <c r="B2" t="n">
         <v>220953044</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>9174741646</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>A-12</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1" t="n"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>46.66666666666666</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -521,13 +635,64 @@
       <c r="B3" t="n">
         <v>220953032</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>7680011239</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>B-12</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -539,10 +704,19 @@
       <c r="B4" t="n">
         <v>220952069</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>8604542123</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>c-12</t>
         </is>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -554,10 +728,19 @@
       <c r="B5" t="n">
         <v>220953090</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>7680011239</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>D-12</t>
         </is>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -569,13 +752,93 @@
       <c r="B6" t="n">
         <v>220953194</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>9284023616</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>e-12</t>
+        </is>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RISHABH SINGH</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>220953044</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8604542123</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>F-12</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ALLU ARJUN</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>22095032</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9174741646</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>G-12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>s</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>